--- a/Transect Setup Data Sheet.xlsx
+++ b/Transect Setup Data Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariozuliani/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariozuliani/Desktop/Data Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
     <t>Site</t>
   </si>
@@ -49,15 +49,42 @@
   <si>
     <t>end.lng</t>
   </si>
+  <si>
+    <t>Carrizo</t>
+  </si>
+  <si>
+    <t>Site.Density</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,12 +106,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,42 +406,842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>35.119750000000003</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-119.62864999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>35.12041</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-119.62794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35.119590000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-119.62833999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>35.1203</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-119.6277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>35.119900000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-119.62889</v>
+      </c>
+      <c r="G4" s="1">
+        <v>35.120550000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-119.62815000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>35.118969999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-119.6284</v>
+      </c>
+      <c r="G5" s="1">
+        <v>35.119660000000003</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-119.62769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35.118749999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-119.62802000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>35.119509999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-119.62742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35.118519999999997</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-119.62778</v>
+      </c>
+      <c r="G7" s="1">
+        <v>35.119219999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-119.62709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>35.118980000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-119.62936000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>35.118279999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-119.63002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>35.118780000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-119.62904</v>
+      </c>
+      <c r="G9" s="2">
+        <v>35.118099999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-119.62973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>35.118670000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-119.6288</v>
+      </c>
+      <c r="G10" s="1">
+        <v>35.117980000000003</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-119.62954000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>35.118569999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-119.62833000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>35.117820000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-119.62897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>35.11842</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-119.62815000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>35.117690000000003</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-119.62878000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>35.118220000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-119.62788</v>
+      </c>
+      <c r="G13" s="1">
+        <v>35.11748</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-119.62848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>35.161520000000003</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-119.67189999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>35.16207</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-119.67104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>35.161290000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-119.67164</v>
+      </c>
+      <c r="G15" s="1">
+        <v>35.161929999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-119.67086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>35.161749999999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-119.67229</v>
+      </c>
+      <c r="G16" s="1">
+        <v>35.162480000000002</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-119.67167000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>35.162909999999997</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-119.6739</v>
+      </c>
+      <c r="G17" s="1">
+        <v>35.163539999999998</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-119.67312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>35.163310000000003</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-119.67431999999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>35.163910000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-119.67348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>35.163710000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-119.67467000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>35.16431</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-119.67382000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>35.16207</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-119.67286</v>
+      </c>
+      <c r="G20" s="1">
+        <v>35.16281</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-119.67223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>35.162329999999997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-119.67317</v>
+      </c>
+      <c r="G21" s="1">
+        <v>35.163029999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-119.67252000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>35.162590000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-119.67348</v>
+      </c>
+      <c r="G22" s="1">
+        <v>35.163330000000002</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-119.67269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>35.162730000000003</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-119.67433</v>
+      </c>
+      <c r="G23" s="1">
+        <v>35.162109999999998</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-119.67512000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>35.162390000000002</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-119.67399</v>
+      </c>
+      <c r="G24" s="1">
+        <v>35.161830000000002</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-119.67486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>35.162199999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-119.67373000000001</v>
+      </c>
+      <c r="G25" s="1">
+        <v>35.161619999999999</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-119.67455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Transect Setup Data Sheet.xlsx
+++ b/Transect Setup Data Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
   <si>
     <t>Site</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Panoche</t>
   </si>
 </sst>
 </file>
@@ -408,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,7 +1059,7 @@
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>35.162199999999999</v>
       </c>
       <c r="F25" s="1">
@@ -1070,124 +1073,316 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>36.695819999999998</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-120.79666</v>
+      </c>
+      <c r="G26" s="1">
+        <v>36.69623</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-120.79564999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>36.695500000000003</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-120.79646</v>
+      </c>
+      <c r="G27" s="2">
+        <v>36.695999999999998</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-120.79554</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>36.69538</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-120.79626</v>
+      </c>
+      <c r="G28" s="1">
+        <v>36.695909999999998</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-120.79533000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-120.79772</v>
+      </c>
+      <c r="G29" s="1">
+        <v>36.695279999999997</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-120.79848</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>36.696159999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-120.79794</v>
+      </c>
+      <c r="G30" s="1">
+        <v>36.695610000000002</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-120.79882000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>36.696379999999998</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-120.79819999999999</v>
+      </c>
+      <c r="G31" s="1">
+        <v>36.695790000000002</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-120.79904999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>36.695239999999998</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-120.79682</v>
+      </c>
+      <c r="G32" s="1">
+        <v>36.694920000000003</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-120.79575</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>36.695129999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-120.79688</v>
+      </c>
+      <c r="G33" s="1">
+        <v>36.694839999999999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-120.79583</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>36.694960000000002</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-120.79707000000001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>36.69464</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-120.79601</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>36.693579999999997</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-120.79268999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>36.692770000000003</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-120.79217</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>36.692860000000003</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-120.79191</v>
+      </c>
+      <c r="G36" s="1">
+        <v>36.696370000000002</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-120.79243</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>36.693759999999997</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-120.79217</v>
+      </c>
+      <c r="G37" s="2">
+        <v>36.692999999999998</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-120.79161000000001</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
